--- a/Code/Results/Cases/Case_0_134/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_134/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.909289175002449</v>
+        <v>10.11875365514329</v>
       </c>
       <c r="D2">
-        <v>4.239249953092732</v>
+        <v>5.31023102338783</v>
       </c>
       <c r="E2">
-        <v>10.31384418971974</v>
+        <v>12.73687827976545</v>
       </c>
       <c r="F2">
-        <v>20.20990318551371</v>
+        <v>26.78117815595823</v>
       </c>
       <c r="G2">
-        <v>2.0752210879432</v>
+        <v>3.644883695392751</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.13163939177566</v>
+        <v>24.80523879970791</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.17103090462574</v>
+        <v>15.07934249687616</v>
       </c>
       <c r="L2">
-        <v>6.279495578316845</v>
+        <v>9.484170272418412</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.19953462787542</v>
+        <v>17.17579014067983</v>
       </c>
       <c r="O2">
-        <v>15.97744255805954</v>
+        <v>23.9150189516587</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.466942381971862</v>
+        <v>10.04089717265047</v>
       </c>
       <c r="D3">
-        <v>4.148942981213121</v>
+        <v>5.283706321572266</v>
       </c>
       <c r="E3">
-        <v>9.873122798412783</v>
+        <v>12.68178901720742</v>
       </c>
       <c r="F3">
-        <v>19.6086080136377</v>
+        <v>26.78629359557181</v>
       </c>
       <c r="G3">
-        <v>2.081017245270749</v>
+        <v>3.647100261956267</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.77612851026151</v>
+        <v>24.84200628154851</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.84946225218949</v>
+        <v>14.61568049680329</v>
       </c>
       <c r="L3">
-        <v>6.139763328555585</v>
+        <v>9.485601943859953</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.26355495753946</v>
+        <v>17.20846622824546</v>
       </c>
       <c r="O3">
-        <v>15.74179429883296</v>
+        <v>23.97460878926559</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.187669624888128</v>
+        <v>9.994826936652858</v>
       </c>
       <c r="D4">
-        <v>4.09222293910311</v>
+        <v>5.267177928899393</v>
       </c>
       <c r="E4">
-        <v>9.598780453899206</v>
+        <v>12.65061302324652</v>
       </c>
       <c r="F4">
-        <v>19.25253549412962</v>
+        <v>26.79754894776432</v>
       </c>
       <c r="G4">
-        <v>2.084684052322934</v>
+        <v>3.648533456826168</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.57144135878483</v>
+        <v>24.87095072505485</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.99037106453646</v>
+        <v>14.32488394323915</v>
       </c>
       <c r="L4">
-        <v>6.056176624306496</v>
+        <v>9.488113285934045</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.30678599348864</v>
+        <v>17.23035312883355</v>
       </c>
       <c r="O4">
-        <v>15.61307431832882</v>
+        <v>24.01740337559844</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.072079083864239</v>
+        <v>9.976506169989545</v>
       </c>
       <c r="D5">
-        <v>4.068808400787912</v>
+        <v>5.260383705310496</v>
       </c>
       <c r="E5">
-        <v>9.48620374258596</v>
+        <v>12.63858442200723</v>
       </c>
       <c r="F5">
-        <v>19.11087435356161</v>
+        <v>26.80417292021667</v>
       </c>
       <c r="G5">
-        <v>2.08620616840523</v>
+        <v>3.649135712655205</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.49145749109345</v>
+        <v>24.88434344238586</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.62825926581315</v>
+        <v>14.20502096920297</v>
       </c>
       <c r="L5">
-        <v>6.02269877748413</v>
+        <v>9.489547613399473</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.325366337668</v>
+        <v>17.23973149931314</v>
       </c>
       <c r="O5">
-        <v>15.56455379976239</v>
+        <v>24.03639776165399</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.052782264595788</v>
+        <v>9.973491881773109</v>
       </c>
       <c r="D6">
-        <v>4.064902851906246</v>
+        <v>5.259252041815976</v>
       </c>
       <c r="E6">
-        <v>9.467468410270673</v>
+        <v>12.63662817034772</v>
       </c>
       <c r="F6">
-        <v>19.08756344073576</v>
+        <v>26.80539575525286</v>
       </c>
       <c r="G6">
-        <v>2.086460617842965</v>
+        <v>3.649236818776548</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.47838326694418</v>
+        <v>24.88666365826423</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.56740341816966</v>
+        <v>14.18504096836531</v>
       </c>
       <c r="L6">
-        <v>6.017175934115953</v>
+        <v>9.489810612884911</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.32850913121303</v>
+        <v>17.24131653093262</v>
       </c>
       <c r="O6">
-        <v>15.55673194312387</v>
+        <v>24.03964553397252</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.186117748051993</v>
+        <v>9.994577999129824</v>
       </c>
       <c r="D7">
-        <v>4.091908353919282</v>
+        <v>5.267086534800929</v>
       </c>
       <c r="E7">
-        <v>9.597265137473499</v>
+        <v>12.65044805252487</v>
       </c>
       <c r="F7">
-        <v>19.25061088794636</v>
+        <v>26.79763003717465</v>
       </c>
       <c r="G7">
-        <v>2.084704466370801</v>
+        <v>3.648541505220399</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.57034878707911</v>
+        <v>24.87112488090211</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.98553624208346</v>
+        <v>14.32327269976645</v>
       </c>
       <c r="L7">
-        <v>6.055722726402584</v>
+        <v>9.488130965393545</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.30703270315834</v>
+        <v>17.23047774827261</v>
       </c>
       <c r="O7">
-        <v>15.61240414348545</v>
+        <v>24.01765325079904</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.758438937019573</v>
+        <v>10.09155941820936</v>
       </c>
       <c r="D8">
-        <v>4.208386988591728</v>
+        <v>5.301136823105066</v>
       </c>
       <c r="E8">
-        <v>10.16274899613471</v>
+        <v>12.71733980483867</v>
       </c>
       <c r="F8">
-        <v>19.99993868484431</v>
+        <v>26.78125636587076</v>
       </c>
       <c r="G8">
-        <v>2.077197643735968</v>
+        <v>3.645633014779311</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.00624557389623</v>
+        <v>24.81659214697844</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.72521283934741</v>
+        <v>14.92083971732057</v>
       </c>
       <c r="L8">
-        <v>6.230874707004803</v>
+        <v>9.48432546435687</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.22078048924238</v>
+        <v>17.18667878069453</v>
       </c>
       <c r="O8">
-        <v>15.89283186907501</v>
+        <v>23.93427432984075</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.814765590659199</v>
+        <v>10.29470646383429</v>
       </c>
       <c r="D9">
-        <v>4.425940990305927</v>
+        <v>5.365896766478439</v>
       </c>
       <c r="E9">
-        <v>11.23600976748999</v>
+        <v>12.86906569465617</v>
       </c>
       <c r="F9">
-        <v>21.56721387820044</v>
+        <v>26.8136067543619</v>
       </c>
       <c r="G9">
-        <v>2.06329878603478</v>
+        <v>3.640499791039361</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.96807544963729</v>
+        <v>24.76033941020971</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.76109571584153</v>
+        <v>16.03723423969189</v>
       </c>
       <c r="L9">
-        <v>6.590622662617681</v>
+        <v>9.489787792361518</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.08387187626639</v>
+        <v>17.11522834022682</v>
       </c>
       <c r="O9">
-        <v>16.57241831632642</v>
+        <v>23.82023517271913</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.54525896593183</v>
+        <v>10.45076018473219</v>
       </c>
       <c r="D10">
-        <v>4.578210191001026</v>
+        <v>5.412128491315872</v>
       </c>
       <c r="E10">
-        <v>11.9962143402318</v>
+        <v>12.992387201418</v>
       </c>
       <c r="F10">
-        <v>22.77027216626463</v>
+        <v>26.87667727785051</v>
       </c>
       <c r="G10">
-        <v>2.053537245573545</v>
+        <v>3.637072355693501</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.73842020671348</v>
+        <v>24.75007689347242</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.76635593969502</v>
+        <v>16.81526167511391</v>
       </c>
       <c r="L10">
-        <v>6.863255197213185</v>
+        <v>9.501636659019942</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.00459029639135</v>
+        <v>17.07149572466827</v>
       </c>
       <c r="O10">
-        <v>17.15396008255102</v>
+        <v>23.76688802790579</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.86692956782746</v>
+        <v>10.52298512735475</v>
       </c>
       <c r="D11">
-        <v>4.64566328801294</v>
+        <v>5.43284246752793</v>
       </c>
       <c r="E11">
-        <v>12.33490192112713</v>
+        <v>13.0509016032057</v>
       </c>
       <c r="F11">
-        <v>23.32728178186339</v>
+        <v>26.91387230377234</v>
       </c>
       <c r="G11">
-        <v>2.049182001037585</v>
+        <v>3.635587015728075</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.10230862449065</v>
+        <v>24.75217530709401</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.63062526144379</v>
+        <v>17.15853782174018</v>
       </c>
       <c r="L11">
-        <v>6.988791641083029</v>
+        <v>9.508715794062061</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.97354813313101</v>
+        <v>17.05349479367205</v>
       </c>
       <c r="O11">
-        <v>17.43685708481872</v>
+        <v>23.74927915389329</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.98716719594059</v>
+        <v>10.5504914246686</v>
       </c>
       <c r="D12">
-        <v>4.670932090613823</v>
+        <v>5.440638533880198</v>
       </c>
       <c r="E12">
-        <v>12.46206880198306</v>
+        <v>13.07339216582969</v>
       </c>
       <c r="F12">
-        <v>23.53950305611994</v>
+        <v>26.9291745461653</v>
       </c>
       <c r="G12">
-        <v>2.047543973547326</v>
+        <v>3.635035110686875</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.24200635955153</v>
+        <v>24.75394343889097</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.95108960204547</v>
+        <v>17.28688709980657</v>
       </c>
       <c r="L12">
-        <v>7.03652537854947</v>
+        <v>9.511637969035556</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.96255177115565</v>
+        <v>17.04694988745905</v>
       </c>
       <c r="O12">
-        <v>17.54665016013206</v>
+        <v>23.74357203213544</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.96134231929519</v>
+        <v>10.54456084253331</v>
       </c>
       <c r="D13">
-        <v>4.665502394883333</v>
+        <v>5.438961676428703</v>
       </c>
       <c r="E13">
-        <v>12.43473026376571</v>
+        <v>13.06853387804627</v>
       </c>
       <c r="F13">
-        <v>23.49374132104368</v>
+        <v>26.92582490105552</v>
       </c>
       <c r="G13">
-        <v>2.047896271290713</v>
+        <v>3.635153504464191</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.21183587802664</v>
+        <v>24.75351934428784</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.88237371948721</v>
+        <v>17.25931944002298</v>
       </c>
       <c r="L13">
-        <v>7.026236667001862</v>
+        <v>9.510997911826099</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.96488568932337</v>
+        <v>17.04834737753774</v>
       </c>
       <c r="O13">
-        <v>17.52288528016856</v>
+        <v>23.74475837439904</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.87685329062582</v>
+        <v>10.52524507781443</v>
       </c>
       <c r="D14">
-        <v>4.647747734620543</v>
+        <v>5.433484826891081</v>
       </c>
       <c r="E14">
-        <v>12.3453860862495</v>
+        <v>13.05274533991831</v>
       </c>
       <c r="F14">
-        <v>23.34471595391102</v>
+        <v>26.91510686979168</v>
       </c>
       <c r="G14">
-        <v>2.04904702124219</v>
+        <v>3.635541398817794</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.11376371403271</v>
+        <v>24.75230126204898</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.65712619235257</v>
+        <v>17.16913068981535</v>
       </c>
       <c r="L14">
-        <v>6.992714913215337</v>
+        <v>9.508951372685676</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.97262803487325</v>
+        <v>17.05295089929148</v>
       </c>
       <c r="O14">
-        <v>17.44583624972336</v>
+        <v>23.74879034844175</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.8248955673175</v>
+        <v>10.51343332971149</v>
       </c>
       <c r="D15">
-        <v>4.636836410157833</v>
+        <v>5.430123797510759</v>
       </c>
       <c r="E15">
-        <v>12.29051714974556</v>
+        <v>13.04311724662576</v>
       </c>
       <c r="F15">
-        <v>23.25359932919455</v>
+        <v>26.9087001005627</v>
       </c>
       <c r="G15">
-        <v>2.049753315738509</v>
+        <v>3.63578036906668</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.05393835125869</v>
+        <v>24.75168193080853</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.51827034939622</v>
+        <v>17.11367058053125</v>
       </c>
       <c r="L15">
-        <v>6.972206779820708</v>
+        <v>9.507729208500438</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.97747036126655</v>
+        <v>17.05580604937689</v>
       </c>
       <c r="O15">
-        <v>17.39898945228094</v>
+        <v>23.75138528896452</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.52401905132875</v>
+        <v>10.44606315092481</v>
       </c>
       <c r="D16">
-        <v>4.573764290325726</v>
+        <v>5.410768209433373</v>
       </c>
       <c r="E16">
-        <v>11.97393116570784</v>
+        <v>12.98861048681717</v>
       </c>
       <c r="F16">
-        <v>22.73405661487756</v>
+        <v>26.87441717842324</v>
       </c>
       <c r="G16">
-        <v>2.053823499140031</v>
+        <v>3.637170906933852</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.71490699453553</v>
+        <v>24.75007597930939</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.70891583388631</v>
+        <v>16.79260372806779</v>
       </c>
       <c r="L16">
-        <v>6.855079613591421</v>
+        <v>9.501207891044174</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.0067231017421</v>
+        <v>17.07271017426338</v>
       </c>
       <c r="O16">
-        <v>17.13584378494133</v>
+        <v>23.76817310979865</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.33668219338385</v>
+        <v>10.40503498733761</v>
       </c>
       <c r="D17">
-        <v>4.534596911152754</v>
+        <v>5.398811353072433</v>
       </c>
       <c r="E17">
-        <v>11.77784005665244</v>
+        <v>12.95578049703243</v>
       </c>
       <c r="F17">
-        <v>22.41774508748629</v>
+        <v>26.85556034263677</v>
       </c>
       <c r="G17">
-        <v>2.056341548777274</v>
+        <v>3.638042824838265</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.51034290432781</v>
+        <v>24.75082449792284</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.20017934338036</v>
+        <v>16.59282906781609</v>
       </c>
       <c r="L17">
-        <v>6.783597080138021</v>
+        <v>9.497638919438838</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.02598034277779</v>
+        <v>17.08356479275761</v>
       </c>
       <c r="O17">
-        <v>16.97913327511141</v>
+        <v>23.78018002504643</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.22793160444725</v>
+        <v>10.38155424032192</v>
       </c>
       <c r="D18">
-        <v>4.511898750096341</v>
+        <v>5.391904376826863</v>
       </c>
       <c r="E18">
-        <v>11.66438474648862</v>
+        <v>12.9371257774622</v>
       </c>
       <c r="F18">
-        <v>22.23673226904059</v>
+        <v>26.8455152570622</v>
       </c>
       <c r="G18">
-        <v>2.05779796386819</v>
+        <v>3.638551280209999</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.39395130131257</v>
+        <v>24.75189197945947</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.90305089963353</v>
+        <v>16.47692710539542</v>
       </c>
       <c r="L18">
-        <v>6.742625889458584</v>
+        <v>9.495745216552281</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.03752710589536</v>
+        <v>17.0899863194295</v>
       </c>
       <c r="O18">
-        <v>16.89072352261104</v>
+        <v>23.78771269073944</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.19094042163099</v>
+        <v>10.37362490296188</v>
       </c>
       <c r="D19">
-        <v>4.504184749025606</v>
+        <v>5.38956076033731</v>
       </c>
       <c r="E19">
-        <v>11.6258579845604</v>
+        <v>12.93084924911807</v>
       </c>
       <c r="F19">
-        <v>22.17560621040723</v>
+        <v>26.8422518559795</v>
       </c>
       <c r="G19">
-        <v>2.058292503178276</v>
+        <v>3.63872462999671</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.35476203135653</v>
+        <v>24.7523627817853</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.80167030615513</v>
+        <v>16.4375170338104</v>
       </c>
       <c r="L19">
-        <v>6.728779150081859</v>
+        <v>9.495131403009186</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.04151638753159</v>
+        <v>17.09219116856258</v>
       </c>
       <c r="O19">
-        <v>16.86108504053452</v>
+        <v>23.79037062931946</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.35672830997599</v>
+        <v>10.40939049177541</v>
       </c>
       <c r="D20">
-        <v>4.538784052361249</v>
+        <v>5.400087272084305</v>
       </c>
       <c r="E20">
-        <v>11.79878401360304</v>
+        <v>12.95925179083613</v>
       </c>
       <c r="F20">
-        <v>22.45132247965314</v>
+        <v>26.85748483322589</v>
       </c>
       <c r="G20">
-        <v>2.056072667263702</v>
+        <v>3.637949288651257</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.53198810189458</v>
+        <v>24.75067888889302</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.25480212711292</v>
+        <v>16.61419942867644</v>
       </c>
       <c r="L20">
-        <v>6.791191818697924</v>
+        <v>9.498002388605483</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.02388142618834</v>
+        <v>17.0823908574987</v>
       </c>
       <c r="O20">
-        <v>16.99563653345671</v>
+        <v>23.77883699062148</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.90171270188218</v>
+        <v>10.53091451575192</v>
       </c>
       <c r="D21">
-        <v>4.652970250062377</v>
+        <v>5.435094827496456</v>
       </c>
       <c r="E21">
-        <v>12.37165853318996</v>
+        <v>13.05737391526194</v>
       </c>
       <c r="F21">
-        <v>23.38845394018126</v>
+        <v>26.9182220308614</v>
       </c>
       <c r="G21">
-        <v>2.048708722723621</v>
+        <v>3.635427178649495</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.14251853218211</v>
+        <v>24.7526326219396</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.72347118709596</v>
+        <v>17.1956666928084</v>
       </c>
       <c r="L21">
-        <v>7.00255590804213</v>
+        <v>9.509545949859264</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.97033302954772</v>
+        <v>17.05159136540162</v>
       </c>
       <c r="O21">
-        <v>17.46839485898678</v>
+        <v>23.74757995466562</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.24871834321709</v>
+        <v>10.61123841116743</v>
       </c>
       <c r="D22">
-        <v>4.725993934139141</v>
+        <v>5.457694240331073</v>
       </c>
       <c r="E22">
-        <v>12.73971421532747</v>
+        <v>13.12343277500735</v>
       </c>
       <c r="F22">
-        <v>24.00843149496939</v>
+        <v>26.96500888059417</v>
       </c>
       <c r="G22">
-        <v>2.043960743910037</v>
+        <v>3.633840366641209</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.55260539475441</v>
+        <v>24.7595835045716</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.64364369894058</v>
+        <v>17.56607577166822</v>
       </c>
       <c r="L22">
-        <v>7.141828349199553</v>
+        <v>9.518496967703481</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.93977661930925</v>
+        <v>17.03304526222697</v>
       </c>
       <c r="O22">
-        <v>17.79292089874721</v>
+        <v>23.73275419202553</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.06436476589151</v>
+        <v>10.5682926931052</v>
       </c>
       <c r="D23">
-        <v>4.687170586800163</v>
+        <v>5.445658879864327</v>
       </c>
       <c r="E23">
-        <v>12.54387288631435</v>
+        <v>13.0880043312979</v>
       </c>
       <c r="F23">
-        <v>23.67688012819006</v>
+        <v>26.93939123967863</v>
       </c>
       <c r="G23">
-        <v>2.046489273308741</v>
+        <v>3.634681665535254</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.33273097930537</v>
+        <v>24.7553545714683</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.15613491436435</v>
+        <v>17.36929445114758</v>
       </c>
       <c r="L23">
-        <v>7.067398592949875</v>
+        <v>9.513591448001012</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.95566618532016</v>
+        <v>17.04279900319379</v>
       </c>
       <c r="O23">
-        <v>17.61828401353006</v>
+        <v>23.74015335756093</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.34766872196032</v>
+        <v>10.40742103365806</v>
       </c>
       <c r="D24">
-        <v>4.536891606436981</v>
+        <v>5.399510531141404</v>
       </c>
       <c r="E24">
-        <v>11.78931748823127</v>
+        <v>12.9576817335271</v>
       </c>
       <c r="F24">
-        <v>22.43613951939245</v>
+        <v>26.85661229122526</v>
       </c>
       <c r="G24">
-        <v>2.056194201247421</v>
+        <v>3.637991553997429</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.52219852091576</v>
+        <v>24.75074273406693</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.23012165314079</v>
+        <v>16.60454114695043</v>
       </c>
       <c r="L24">
-        <v>6.787757846114821</v>
+        <v>9.497837571481055</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.02482886795771</v>
+        <v>17.08292102957205</v>
       </c>
       <c r="O24">
-        <v>16.98817016339575</v>
+        <v>23.77944221513438</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.536695171536866</v>
+        <v>10.23847340385909</v>
       </c>
       <c r="D25">
-        <v>4.368352143907246</v>
+        <v>5.348605391886747</v>
       </c>
       <c r="E25">
-        <v>10.95023601562115</v>
+        <v>12.82588677483757</v>
       </c>
       <c r="F25">
-        <v>21.13361052069525</v>
+        <v>26.79794733827075</v>
       </c>
       <c r="G25">
-        <v>2.066975882901445</v>
+        <v>3.641827795453516</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.69655774128742</v>
+        <v>24.77011099482248</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.97965190729784</v>
+        <v>15.7420734689596</v>
       </c>
       <c r="L25">
-        <v>6.491729219829108</v>
+        <v>9.486930226057193</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.11729524126656</v>
+        <v>17.13301597021071</v>
       </c>
       <c r="O25">
-        <v>16.37431609085231</v>
+        <v>23.84575921894702</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_134/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_134/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.11875365514329</v>
+        <v>8.909289175002527</v>
       </c>
       <c r="D2">
-        <v>5.31023102338783</v>
+        <v>4.239249953092897</v>
       </c>
       <c r="E2">
-        <v>12.73687827976545</v>
+        <v>10.31384418971978</v>
       </c>
       <c r="F2">
-        <v>26.78117815595823</v>
+        <v>20.20990318551367</v>
       </c>
       <c r="G2">
-        <v>3.644883695392751</v>
+        <v>2.075221087943199</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.80523879970791</v>
+        <v>17.13163939177573</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.07934249687616</v>
+        <v>20.17103090462572</v>
       </c>
       <c r="L2">
-        <v>9.484170272418412</v>
+        <v>6.279495578316883</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.17579014067983</v>
+        <v>12.19953462787541</v>
       </c>
       <c r="O2">
-        <v>23.9150189516587</v>
+        <v>15.97744255805956</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.04089717265047</v>
+        <v>8.466942381971904</v>
       </c>
       <c r="D3">
-        <v>5.283706321572266</v>
+        <v>4.148942981213313</v>
       </c>
       <c r="E3">
-        <v>12.68178901720742</v>
+        <v>9.873122798412762</v>
       </c>
       <c r="F3">
-        <v>26.78629359557181</v>
+        <v>19.6086080136375</v>
       </c>
       <c r="G3">
-        <v>3.647100261956267</v>
+        <v>2.081017245271016</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.84200628154851</v>
+        <v>16.77612851026138</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.61568049680329</v>
+        <v>18.84946225218953</v>
       </c>
       <c r="L3">
-        <v>9.485601943859953</v>
+        <v>6.139763328555601</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.20846622824546</v>
+        <v>12.26355495753939</v>
       </c>
       <c r="O3">
-        <v>23.97460878926559</v>
+        <v>15.74179429883283</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.994826936652858</v>
+        <v>8.187669624888128</v>
       </c>
       <c r="D4">
-        <v>5.267177928899393</v>
+        <v>4.092222939102991</v>
       </c>
       <c r="E4">
-        <v>12.65061302324652</v>
+        <v>9.598780453899233</v>
       </c>
       <c r="F4">
-        <v>26.79754894776432</v>
+        <v>19.25253549412962</v>
       </c>
       <c r="G4">
-        <v>3.648533456826168</v>
+        <v>2.084684052322801</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.87095072505485</v>
+        <v>16.57144135878487</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.32488394323915</v>
+        <v>17.99037106453646</v>
       </c>
       <c r="L4">
-        <v>9.488113285934045</v>
+        <v>6.056176624306483</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.23035312883355</v>
+        <v>12.3067859934886</v>
       </c>
       <c r="O4">
-        <v>24.01740337559844</v>
+        <v>15.61307431832881</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.976506169989545</v>
+        <v>8.072079083864326</v>
       </c>
       <c r="D5">
-        <v>5.260383705310496</v>
+        <v>4.068808400788027</v>
       </c>
       <c r="E5">
-        <v>12.63858442200723</v>
+        <v>9.486203742585957</v>
       </c>
       <c r="F5">
-        <v>26.80417292021667</v>
+        <v>19.1108743535615</v>
       </c>
       <c r="G5">
-        <v>3.649135712655205</v>
+        <v>2.086206168405231</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.88434344238586</v>
+        <v>16.49145749109339</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.20502096920297</v>
+        <v>17.62825926581315</v>
       </c>
       <c r="L5">
-        <v>9.489547613399473</v>
+        <v>6.022698777484126</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.23973149931314</v>
+        <v>12.32536633766794</v>
       </c>
       <c r="O5">
-        <v>24.03639776165399</v>
+        <v>15.56455379976233</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.973491881773109</v>
+        <v>8.052782264595704</v>
       </c>
       <c r="D6">
-        <v>5.259252041815976</v>
+        <v>4.064902851906255</v>
       </c>
       <c r="E6">
-        <v>12.63662817034772</v>
+        <v>9.46746841027066</v>
       </c>
       <c r="F6">
-        <v>26.80539575525286</v>
+        <v>19.08756344073573</v>
       </c>
       <c r="G6">
-        <v>3.649236818776548</v>
+        <v>2.086460617842831</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.88666365826423</v>
+        <v>16.47838326694414</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.18504096836531</v>
+        <v>17.56740341816966</v>
       </c>
       <c r="L6">
-        <v>9.489810612884911</v>
+        <v>6.017175934115977</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.24131653093262</v>
+        <v>12.32850913121307</v>
       </c>
       <c r="O6">
-        <v>24.03964553397252</v>
+        <v>15.55673194312384</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.994577999129824</v>
+        <v>8.18611774805195</v>
       </c>
       <c r="D7">
-        <v>5.267086534800929</v>
+        <v>4.091908353919346</v>
       </c>
       <c r="E7">
-        <v>12.65044805252487</v>
+        <v>9.59726513747346</v>
       </c>
       <c r="F7">
-        <v>26.79763003717465</v>
+        <v>19.2506108879464</v>
       </c>
       <c r="G7">
-        <v>3.648541505220399</v>
+        <v>2.084704466370669</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.87112488090211</v>
+        <v>16.57034878707916</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.32327269976645</v>
+        <v>17.98553624208342</v>
       </c>
       <c r="L7">
-        <v>9.488130965393545</v>
+        <v>6.055722726402553</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.23047774827261</v>
+        <v>12.30703270315833</v>
       </c>
       <c r="O7">
-        <v>24.01765325079904</v>
+        <v>15.61240414348552</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.09155941820936</v>
+        <v>8.758438937019628</v>
       </c>
       <c r="D8">
-        <v>5.301136823105066</v>
+        <v>4.208386988591903</v>
       </c>
       <c r="E8">
-        <v>12.71733980483867</v>
+        <v>10.1627489961347</v>
       </c>
       <c r="F8">
-        <v>26.78125636587076</v>
+        <v>19.99993868484422</v>
       </c>
       <c r="G8">
-        <v>3.645633014779311</v>
+        <v>2.077197643735836</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.81659214697844</v>
+        <v>17.00624557389619</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.92083971732057</v>
+        <v>19.72521283934746</v>
       </c>
       <c r="L8">
-        <v>9.48432546435687</v>
+        <v>6.230874707004784</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.18667878069453</v>
+        <v>12.22078048924241</v>
       </c>
       <c r="O8">
-        <v>23.93427432984075</v>
+        <v>15.89283186907495</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.29470646383429</v>
+        <v>9.814765590659217</v>
       </c>
       <c r="D9">
-        <v>5.365896766478439</v>
+        <v>4.425940990305921</v>
       </c>
       <c r="E9">
-        <v>12.86906569465617</v>
+        <v>11.23600976749001</v>
       </c>
       <c r="F9">
-        <v>26.8136067543619</v>
+        <v>21.56721387820044</v>
       </c>
       <c r="G9">
-        <v>3.640499791039361</v>
+        <v>2.063298786034646</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.76033941020971</v>
+        <v>17.96807544963729</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.03723423969189</v>
+        <v>22.76109571584153</v>
       </c>
       <c r="L9">
-        <v>9.489787792361518</v>
+        <v>6.590622662617713</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.11522834022682</v>
+        <v>12.08387187626639</v>
       </c>
       <c r="O9">
-        <v>23.82023517271913</v>
+        <v>16.57241831632642</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.45076018473219</v>
+        <v>10.54525896593181</v>
       </c>
       <c r="D10">
-        <v>5.412128491315872</v>
+        <v>4.578210191000935</v>
       </c>
       <c r="E10">
-        <v>12.992387201418</v>
+        <v>11.99621434023178</v>
       </c>
       <c r="F10">
-        <v>26.87667727785051</v>
+        <v>22.77027216626468</v>
       </c>
       <c r="G10">
-        <v>3.637072355693501</v>
+        <v>2.053537245573279</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.75007689347242</v>
+        <v>18.73842020671349</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.81526167511391</v>
+        <v>24.76635593969502</v>
       </c>
       <c r="L10">
-        <v>9.501636659019942</v>
+        <v>6.8632551972132</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.07149572466827</v>
+        <v>12.00459029639135</v>
       </c>
       <c r="O10">
-        <v>23.76688802790579</v>
+        <v>17.15396008255104</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.52298512735475</v>
+        <v>10.86692956782742</v>
       </c>
       <c r="D11">
-        <v>5.43284246752793</v>
+        <v>4.645663288013062</v>
       </c>
       <c r="E11">
-        <v>13.0509016032057</v>
+        <v>12.33490192112712</v>
       </c>
       <c r="F11">
-        <v>26.91387230377234</v>
+        <v>23.32728178186335</v>
       </c>
       <c r="G11">
-        <v>3.635587015728075</v>
+        <v>2.049182001037454</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.75217530709401</v>
+        <v>19.1023086244906</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.15853782174018</v>
+        <v>25.63062526144379</v>
       </c>
       <c r="L11">
-        <v>9.508715794062061</v>
+        <v>6.988791641083032</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.05349479367205</v>
+        <v>11.97354813313095</v>
       </c>
       <c r="O11">
-        <v>23.74927915389329</v>
+        <v>17.43685708481868</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.5504914246686</v>
+        <v>10.98716719594053</v>
       </c>
       <c r="D12">
-        <v>5.440638533880198</v>
+        <v>4.670932090613937</v>
       </c>
       <c r="E12">
-        <v>13.07339216582969</v>
+        <v>12.46206880198305</v>
       </c>
       <c r="F12">
-        <v>26.9291745461653</v>
+        <v>23.53950305611997</v>
       </c>
       <c r="G12">
-        <v>3.635035110686875</v>
+        <v>2.047543973547328</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.75394343889097</v>
+        <v>19.24200635955153</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.28688709980657</v>
+        <v>25.9510896020454</v>
       </c>
       <c r="L12">
-        <v>9.511637969035556</v>
+        <v>7.036525378549477</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.04694988745905</v>
+        <v>11.96255177115568</v>
       </c>
       <c r="O12">
-        <v>23.74357203213544</v>
+        <v>17.54665016013207</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.54456084253331</v>
+        <v>10.96134231929518</v>
       </c>
       <c r="D13">
-        <v>5.438961676428703</v>
+        <v>4.665502394883333</v>
       </c>
       <c r="E13">
-        <v>13.06853387804627</v>
+        <v>12.43473026376572</v>
       </c>
       <c r="F13">
-        <v>26.92582490105552</v>
+        <v>23.49374132104364</v>
       </c>
       <c r="G13">
-        <v>3.635153504464191</v>
+        <v>2.047896271290845</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.75351934428784</v>
+        <v>19.21183587802661</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.25931944002298</v>
+        <v>25.88237371948724</v>
       </c>
       <c r="L13">
-        <v>9.510997911826099</v>
+        <v>7.026236667001837</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.04834737753774</v>
+        <v>11.96488568932334</v>
       </c>
       <c r="O13">
-        <v>23.74475837439904</v>
+        <v>17.52288528016851</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.52524507781443</v>
+        <v>10.8768532906258</v>
       </c>
       <c r="D14">
-        <v>5.433484826891081</v>
+        <v>4.647747734620642</v>
       </c>
       <c r="E14">
-        <v>13.05274533991831</v>
+        <v>12.34538608624947</v>
       </c>
       <c r="F14">
-        <v>26.91510686979168</v>
+        <v>23.34471595391098</v>
       </c>
       <c r="G14">
-        <v>3.635541398817794</v>
+        <v>2.049047021242322</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.75230126204898</v>
+        <v>19.11376371403265</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.16913068981535</v>
+        <v>25.65712619235256</v>
       </c>
       <c r="L14">
-        <v>9.508951372685676</v>
+        <v>6.992714913215317</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.05295089929148</v>
+        <v>11.97262803487322</v>
       </c>
       <c r="O14">
-        <v>23.74879034844175</v>
+        <v>17.44583624972334</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.51343332971149</v>
+        <v>10.82489556731753</v>
       </c>
       <c r="D15">
-        <v>5.430123797510759</v>
+        <v>4.636836410157867</v>
       </c>
       <c r="E15">
-        <v>13.04311724662576</v>
+        <v>12.29051714974557</v>
       </c>
       <c r="F15">
-        <v>26.9087001005627</v>
+        <v>23.25359932919448</v>
       </c>
       <c r="G15">
-        <v>3.63578036906668</v>
+        <v>2.049753315738375</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.75168193080853</v>
+        <v>19.05393835125863</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.11367058053125</v>
+        <v>25.5182703493963</v>
       </c>
       <c r="L15">
-        <v>9.507729208500438</v>
+        <v>6.972206779820719</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.05580604937689</v>
+        <v>11.97747036126649</v>
       </c>
       <c r="O15">
-        <v>23.75138528896452</v>
+        <v>17.39898945228085</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.44606315092481</v>
+        <v>10.52401905132871</v>
       </c>
       <c r="D16">
-        <v>5.410768209433373</v>
+        <v>4.573764290325865</v>
       </c>
       <c r="E16">
-        <v>12.98861048681717</v>
+        <v>11.97393116570782</v>
       </c>
       <c r="F16">
-        <v>26.87441717842324</v>
+        <v>22.73405661487751</v>
       </c>
       <c r="G16">
-        <v>3.637170906933852</v>
+        <v>2.053823499140166</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.75007597930939</v>
+        <v>18.71490699453551</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.79260372806779</v>
+        <v>24.70891583388627</v>
       </c>
       <c r="L16">
-        <v>9.501207891044174</v>
+        <v>6.855079613591395</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.07271017426338</v>
+        <v>12.00672310174207</v>
       </c>
       <c r="O16">
-        <v>23.76817310979865</v>
+        <v>17.13584378494132</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.40503498733761</v>
+        <v>10.33668219338383</v>
       </c>
       <c r="D17">
-        <v>5.398811353072433</v>
+        <v>4.534596911152659</v>
       </c>
       <c r="E17">
-        <v>12.95578049703243</v>
+        <v>11.77784005665244</v>
       </c>
       <c r="F17">
-        <v>26.85556034263677</v>
+        <v>22.41774508748628</v>
       </c>
       <c r="G17">
-        <v>3.638042824838265</v>
+        <v>2.056341548777406</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.75082449792284</v>
+        <v>18.51034290432779</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.59282906781609</v>
+        <v>24.20017934338041</v>
       </c>
       <c r="L17">
-        <v>9.497638919438838</v>
+        <v>6.783597080138037</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.08356479275761</v>
+        <v>12.02598034277779</v>
       </c>
       <c r="O17">
-        <v>23.78018002504643</v>
+        <v>16.97913327511138</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.38155424032192</v>
+        <v>10.22793160444724</v>
       </c>
       <c r="D18">
-        <v>5.391904376826863</v>
+        <v>4.511898750096355</v>
       </c>
       <c r="E18">
-        <v>12.9371257774622</v>
+        <v>11.66438474648861</v>
       </c>
       <c r="F18">
-        <v>26.8455152570622</v>
+        <v>22.23673226904053</v>
       </c>
       <c r="G18">
-        <v>3.638551280209999</v>
+        <v>2.057797963868057</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.75189197945947</v>
+        <v>18.3939513013125</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.47692710539542</v>
+        <v>23.90305089963356</v>
       </c>
       <c r="L18">
-        <v>9.495745216552281</v>
+        <v>6.742625889458568</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.0899863194295</v>
+        <v>12.03752710589533</v>
       </c>
       <c r="O18">
-        <v>23.78771269073944</v>
+        <v>16.89072352261096</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.37362490296188</v>
+        <v>10.19094042163092</v>
       </c>
       <c r="D19">
-        <v>5.38956076033731</v>
+        <v>4.504184749025781</v>
       </c>
       <c r="E19">
-        <v>12.93084924911807</v>
+        <v>11.62585798456045</v>
       </c>
       <c r="F19">
-        <v>26.8422518559795</v>
+        <v>22.17560621040711</v>
       </c>
       <c r="G19">
-        <v>3.63872462999671</v>
+        <v>2.058292503178411</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.7523627817853</v>
+        <v>18.35476203135641</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.4375170338104</v>
+        <v>23.80167030615518</v>
       </c>
       <c r="L19">
-        <v>9.495131403009186</v>
+        <v>6.728779150081889</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.09219116856258</v>
+        <v>12.04151638753156</v>
       </c>
       <c r="O19">
-        <v>23.79037062931946</v>
+        <v>16.8610850405344</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.40939049177541</v>
+        <v>10.35672830997602</v>
       </c>
       <c r="D20">
-        <v>5.400087272084305</v>
+        <v>4.538784052361318</v>
       </c>
       <c r="E20">
-        <v>12.95925179083613</v>
+        <v>11.79878401360301</v>
       </c>
       <c r="F20">
-        <v>26.85748483322589</v>
+        <v>22.45132247965308</v>
       </c>
       <c r="G20">
-        <v>3.637949288651257</v>
+        <v>2.056072667263702</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.75067888889302</v>
+        <v>18.53198810189452</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.61419942867644</v>
+        <v>24.25480212711297</v>
       </c>
       <c r="L20">
-        <v>9.498002388605483</v>
+        <v>6.791191818697903</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.0823908574987</v>
+        <v>12.02388142618828</v>
       </c>
       <c r="O20">
-        <v>23.77883699062148</v>
+        <v>16.99563653345663</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.53091451575192</v>
+        <v>10.90171270188219</v>
       </c>
       <c r="D21">
-        <v>5.435094827496456</v>
+        <v>4.652970250062343</v>
       </c>
       <c r="E21">
-        <v>13.05737391526194</v>
+        <v>12.37165853318999</v>
       </c>
       <c r="F21">
-        <v>26.9182220308614</v>
+        <v>23.38845394018119</v>
       </c>
       <c r="G21">
-        <v>3.635427178649495</v>
+        <v>2.048708722723755</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.7526326219396</v>
+        <v>19.14251853218205</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.1956666928084</v>
+        <v>25.72347118709598</v>
       </c>
       <c r="L21">
-        <v>9.509545949859264</v>
+        <v>7.002555908042142</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.05159136540162</v>
+        <v>11.97033302954769</v>
       </c>
       <c r="O21">
-        <v>23.74757995466562</v>
+        <v>17.46839485898668</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.61123841116743</v>
+        <v>11.24871834321712</v>
       </c>
       <c r="D22">
-        <v>5.457694240331073</v>
+        <v>4.725993934139087</v>
       </c>
       <c r="E22">
-        <v>13.12343277500735</v>
+        <v>12.73971421532748</v>
       </c>
       <c r="F22">
-        <v>26.96500888059417</v>
+        <v>24.00843149496937</v>
       </c>
       <c r="G22">
-        <v>3.633840366641209</v>
+        <v>2.043960743910304</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.7595835045716</v>
+        <v>19.55260539475439</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.56607577166822</v>
+        <v>26.64364369894064</v>
       </c>
       <c r="L22">
-        <v>9.518496967703481</v>
+        <v>7.14182834919955</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.03304526222697</v>
+        <v>11.93977661930921</v>
       </c>
       <c r="O22">
-        <v>23.73275419202553</v>
+        <v>17.79292089874717</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.5682926931052</v>
+        <v>11.06436476589153</v>
       </c>
       <c r="D23">
-        <v>5.445658879864327</v>
+        <v>4.687170586800126</v>
       </c>
       <c r="E23">
-        <v>13.0880043312979</v>
+        <v>12.54387288631433</v>
       </c>
       <c r="F23">
-        <v>26.93939123967863</v>
+        <v>23.67688012819006</v>
       </c>
       <c r="G23">
-        <v>3.634681665535254</v>
+        <v>2.046489273309009</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.7553545714683</v>
+        <v>19.33273097930538</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.36929445114758</v>
+        <v>26.15613491436434</v>
       </c>
       <c r="L23">
-        <v>9.513591448001012</v>
+        <v>7.067398592949867</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.04279900319379</v>
+        <v>11.9556661853202</v>
       </c>
       <c r="O23">
-        <v>23.74015335756093</v>
+        <v>17.61828401353007</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.40742103365806</v>
+        <v>10.34766872196032</v>
       </c>
       <c r="D24">
-        <v>5.399510531141404</v>
+        <v>4.536891606437088</v>
       </c>
       <c r="E24">
-        <v>12.9576817335271</v>
+        <v>11.78931748823127</v>
       </c>
       <c r="F24">
-        <v>26.85661229122526</v>
+        <v>22.43613951939242</v>
       </c>
       <c r="G24">
-        <v>3.637991553997429</v>
+        <v>2.05619420124729</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.75074273406693</v>
+        <v>18.52219852091575</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.60454114695043</v>
+        <v>24.23012165314077</v>
       </c>
       <c r="L24">
-        <v>9.497837571481055</v>
+        <v>6.787757846114821</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.08292102957205</v>
+        <v>12.02482886795771</v>
       </c>
       <c r="O24">
-        <v>23.77944221513438</v>
+        <v>16.98817016339573</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.23847340385909</v>
+        <v>9.536695171536836</v>
       </c>
       <c r="D25">
-        <v>5.348605391886747</v>
+        <v>4.368352143907309</v>
       </c>
       <c r="E25">
-        <v>12.82588677483757</v>
+        <v>10.95023601562115</v>
       </c>
       <c r="F25">
-        <v>26.79794733827075</v>
+        <v>21.1336105206952</v>
       </c>
       <c r="G25">
-        <v>3.641827795453516</v>
+        <v>2.066975882901178</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.77011099482248</v>
+        <v>17.69655774128736</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.7420734689596</v>
+        <v>21.97965190729788</v>
       </c>
       <c r="L25">
-        <v>9.486930226057193</v>
+        <v>6.491729219829161</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.13301597021071</v>
+        <v>12.11729524126659</v>
       </c>
       <c r="O25">
-        <v>23.84575921894702</v>
+        <v>16.37431609085228</v>
       </c>
     </row>
   </sheetData>
